--- a/data/既有债权列表.xlsx
+++ b/data/既有债权列表.xlsx
@@ -1,30 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26311"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xueleixi/Desktop/word-html/data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4220" yWindow="1760" windowWidth="24580" windowHeight="14100"/>
+    <workbookView windowWidth="20385" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="既有债权列表" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51">
   <si>
     <t>出借编号</t>
   </si>
@@ -77,6 +67,9 @@
     <t>1,991.98</t>
   </si>
   <si>
+    <t>2017/08/27</t>
+  </si>
+  <si>
     <t>18.92</t>
   </si>
   <si>
@@ -89,6 +82,9 @@
     <t>202,010.90　</t>
   </si>
   <si>
+    <t>2017/09/27</t>
+  </si>
+  <si>
     <t>1,919.10　</t>
   </si>
   <si>
@@ -101,6 +97,9 @@
     <t>11,712.23　</t>
   </si>
   <si>
+    <t>2017/10/15</t>
+  </si>
+  <si>
     <t>111.27　</t>
   </si>
   <si>
@@ -125,6 +124,9 @@
     <t>5,865.50　</t>
   </si>
   <si>
+    <t>2017/10/07</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
@@ -146,6 +148,9 @@
     <t>4,424.19　</t>
   </si>
   <si>
+    <t>2017/10/05</t>
+  </si>
+  <si>
     <t>4</t>
   </si>
   <si>
@@ -162,52 +167,20 @@
   </si>
   <si>
     <t>0013091</t>
-  </si>
-  <si>
-    <t>2017/08/27</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017/09/27</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017/10/15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017/09/27</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017/10/07</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017/10/05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017/09/27</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017/10/15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>413025197011174000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -216,22 +189,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -239,9 +535,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -261,26 +799,73 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -542,45 +1127,45 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.3333333333333" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.3333333333333" style="3" customWidth="1"/>
+    <col min="3" max="3" width="20.3333333333333" style="2" customWidth="1"/>
     <col min="4" max="4" width="13" style="4" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.83203125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="14.6666666666667" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.8333333333333" style="5" customWidth="1"/>
     <col min="7" max="7" width="12" style="4" customWidth="1"/>
     <col min="8" max="8" width="8.5" style="4" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="19.6640625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="10.83203125" style="4" customWidth="1"/>
-    <col min="13" max="13" width="10.1640625" style="4" customWidth="1"/>
-    <col min="14" max="14" width="23.6640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="8.66666666666667" style="4" customWidth="1"/>
+    <col min="10" max="10" width="12.3333333333333" style="4" customWidth="1"/>
+    <col min="11" max="11" width="19.6666666666667" style="3" customWidth="1"/>
+    <col min="12" max="12" width="10.8333333333333" style="4" customWidth="1"/>
+    <col min="13" max="13" width="10.1666666666667" style="4" customWidth="1"/>
+    <col min="14" max="14" width="23.6666666666667" style="4" customWidth="1"/>
     <col min="15" max="16" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="47" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+    <row r="1" s="1" customFormat="1" ht="47" customHeight="1" spans="1:16">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -589,7 +1174,7 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
@@ -601,7 +1186,7 @@
       <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="8" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
@@ -617,7 +1202,7 @@
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
     </row>
-    <row r="2" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" ht="36" customHeight="1" spans="1:16">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
@@ -634,10 +1219,10 @@
         <v>16</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H2" s="4">
         <v>4</v>
@@ -645,34 +1230,34 @@
       <c r="I2" s="4">
         <v>1</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="9">
         <v>0.12</v>
       </c>
-      <c r="N2" s="9"/>
+      <c r="N2" s="5"/>
       <c r="O2"/>
       <c r="P2"/>
     </row>
-    <row r="3" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" ht="36" customHeight="1" spans="1:16">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H3" s="4">
         <v>12</v>
@@ -680,34 +1265,34 @@
       <c r="I3" s="4">
         <v>10</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="9">
         <v>0.12</v>
       </c>
-      <c r="N3" s="9"/>
+      <c r="N3" s="5"/>
       <c r="O3"/>
       <c r="P3"/>
     </row>
-    <row r="4" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" ht="36" customHeight="1" spans="1:16">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H4" s="4">
         <v>4</v>
@@ -715,180 +1300,180 @@
       <c r="I4" s="4">
         <v>3</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="9">
         <v>0.12</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N4" s="9"/>
+        <v>29</v>
+      </c>
+      <c r="N4" s="5"/>
       <c r="O4"/>
       <c r="P4"/>
     </row>
-    <row r="5" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" ht="36" customHeight="1" spans="1:16">
       <c r="A5" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="G5" s="4">
         <v>968.92</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I5" s="4">
         <v>10</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="9">
         <v>0.12</v>
       </c>
-      <c r="N5" s="9"/>
+      <c r="N5" s="5"/>
       <c r="O5"/>
       <c r="P5"/>
     </row>
-    <row r="6" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" ht="36" customHeight="1" spans="1:16">
       <c r="A6" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="G6" s="4">
         <v>55.72</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I6" s="4">
         <v>2</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="9">
         <v>0.12</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="N6" s="9"/>
+        <v>38</v>
+      </c>
+      <c r="N6" s="5"/>
       <c r="O6"/>
       <c r="P6"/>
     </row>
-    <row r="7" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" ht="36" customHeight="1" spans="1:16">
       <c r="A7" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="G7" s="4">
         <v>2212.19</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I7" s="4">
         <v>10</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="9">
         <v>0.12</v>
       </c>
-      <c r="N7" s="9"/>
+      <c r="N7" s="5"/>
       <c r="O7"/>
       <c r="P7"/>
     </row>
-    <row r="8" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" ht="36" customHeight="1" spans="1:16">
       <c r="A8" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G8" s="4">
         <v>42.03</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I8" s="4">
         <v>3</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="9">
         <v>0.12</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="N8" s="9"/>
+        <v>46</v>
+      </c>
+      <c r="N8" s="5"/>
       <c r="O8"/>
       <c r="P8"/>
     </row>
-    <row r="9" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" ht="36" customHeight="1" spans="1:16">
       <c r="A9" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E9" s="4">
         <v>50440.82</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="G9" s="4">
         <v>440.85</v>
@@ -899,31 +1484,31 @@
       <c r="I9" s="4">
         <v>10</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="9">
         <v>0.11</v>
       </c>
-      <c r="N9" s="9"/>
+      <c r="N9" s="5"/>
       <c r="O9"/>
       <c r="P9"/>
     </row>
-    <row r="10" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" ht="36" customHeight="1" spans="1:16">
       <c r="A10" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E10" s="4">
         <v>881.67</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="G10" s="4">
         <v>7.71</v>
@@ -934,34 +1519,34 @@
       <c r="I10" s="4">
         <v>3</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="9">
         <v>0.11</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N10" s="9"/>
+        <v>29</v>
+      </c>
+      <c r="N10" s="5"/>
       <c r="O10"/>
       <c r="P10"/>
     </row>
-    <row r="11" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" ht="36" customHeight="1" spans="1:16">
       <c r="A11" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E11" s="4">
         <v>50440.82</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="G11" s="4">
         <v>440.85</v>
@@ -972,31 +1557,31 @@
       <c r="I11" s="4">
         <v>10</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="9">
         <v>0.11</v>
       </c>
-      <c r="N11" s="9"/>
+      <c r="N11" s="5"/>
       <c r="O11"/>
       <c r="P11"/>
     </row>
-    <row r="12" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" ht="36" customHeight="1" spans="1:16">
       <c r="A12" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E12" s="4">
         <v>881.67</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="G12" s="4">
         <v>7.71</v>
@@ -1007,18 +1592,18 @@
       <c r="I12" s="4">
         <v>2</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12" s="9">
         <v>0.11</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="N12" s="9"/>
+        <v>38</v>
+      </c>
+      <c r="N12" s="5"/>
       <c r="O12"/>
       <c r="P12"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/data/既有债权列表.xlsx
+++ b/data/既有债权列表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="7950"/>
+    <workbookView windowWidth="18255" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="既有债权列表" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
   <si>
     <t>出借编号</t>
   </si>
@@ -107,6 +107,9 @@
   </si>
   <si>
     <t>91310104MA1FR9M8XN</t>
+  </si>
+  <si>
+    <t>2017/09/06</t>
   </si>
   <si>
     <t>249.00</t>
@@ -118,12 +121,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,107 +149,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -258,9 +177,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,6 +208,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -283,14 +248,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,187 +301,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,6 +492,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -510,17 +530,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -540,17 +549,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -569,33 +592,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -604,10 +600,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -616,138 +612,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -779,13 +775,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1161,7 +1150,7 @@
   <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1211,7 +1200,7 @@
       <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="12" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="6" t="s">
@@ -1258,7 +1247,7 @@
       <c r="J2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="15"/>
+      <c r="N2" s="13"/>
       <c r="O2"/>
       <c r="P2"/>
     </row>
@@ -1293,7 +1282,7 @@
       <c r="J3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="N3" s="15"/>
+      <c r="N3" s="13"/>
       <c r="O3"/>
       <c r="P3"/>
     </row>
@@ -1328,7 +1317,7 @@
       <c r="J4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="N4" s="15"/>
+      <c r="N4" s="13"/>
       <c r="O4"/>
       <c r="P4"/>
     </row>
@@ -1342,17 +1331,17 @@
       <c r="C5" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="11">
-        <v>50000</v>
-      </c>
-      <c r="E5" s="11">
-        <v>50000</v>
-      </c>
-      <c r="F5" s="12">
-        <v>42984</v>
-      </c>
-      <c r="G5" s="13" t="s">
+      <c r="D5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>31</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="H5" s="10">
         <v>24</v>
@@ -1360,46 +1349,46 @@
       <c r="I5" s="10">
         <v>22</v>
       </c>
-      <c r="J5" s="16">
+      <c r="J5" s="14">
         <v>0.06</v>
       </c>
-      <c r="K5" s="17"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="19"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="17"/>
     </row>
     <row r="6" ht="36" customHeight="1" spans="14:16">
-      <c r="N6" s="15"/>
+      <c r="N6" s="13"/>
       <c r="O6"/>
       <c r="P6"/>
     </row>
     <row r="7" ht="36" customHeight="1" spans="14:16">
-      <c r="N7" s="15"/>
+      <c r="N7" s="13"/>
       <c r="O7"/>
       <c r="P7"/>
     </row>
     <row r="8" ht="36" customHeight="1" spans="14:16">
-      <c r="N8" s="15"/>
+      <c r="N8" s="13"/>
       <c r="O8"/>
       <c r="P8"/>
     </row>
     <row r="9" ht="36" customHeight="1" spans="14:16">
-      <c r="N9" s="15"/>
+      <c r="N9" s="13"/>
       <c r="O9"/>
       <c r="P9"/>
     </row>
     <row r="10" ht="36" customHeight="1" spans="14:16">
-      <c r="N10" s="15"/>
+      <c r="N10" s="13"/>
       <c r="O10"/>
       <c r="P10"/>
     </row>
     <row r="11" ht="36" customHeight="1" spans="14:16">
-      <c r="N11" s="15"/>
+      <c r="N11" s="13"/>
       <c r="O11"/>
       <c r="P11"/>
     </row>
     <row r="12" ht="36" customHeight="1" spans="14:16">
-      <c r="N12" s="15"/>
+      <c r="N12" s="13"/>
       <c r="O12"/>
       <c r="P12"/>
     </row>

--- a/data/既有债权列表.xlsx
+++ b/data/既有债权列表.xlsx
@@ -1,25 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26311"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RC\Desktop\docx-template-modify-master\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xueleixi/Desktop/word-html/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="12440"/>
   </bookViews>
   <sheets>
     <sheet name="二区七中心" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="44">
   <si>
     <t>出借编号</t>
   </si>
@@ -151,12 +156,6 @@
   </si>
   <si>
     <t>0013226</t>
-  </si>
-  <si>
-    <t>0013220</t>
-  </si>
-  <si>
-    <t>10.20%</t>
   </si>
 </sst>
 </file>
@@ -208,16 +207,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,32 +555,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P37"/>
+  <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="20.375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="13" style="9" customWidth="1"/>
-    <col min="5" max="5" width="14.625" style="9" customWidth="1"/>
-    <col min="6" max="6" width="12.875" style="11" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" style="11" customWidth="1"/>
     <col min="7" max="7" width="12" style="9" customWidth="1"/>
     <col min="8" max="8" width="8.5" style="2" customWidth="1"/>
-    <col min="9" max="9" width="8.625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="12.375" style="4" customWidth="1"/>
-    <col min="11" max="11" width="21.125" style="5" customWidth="1"/>
-    <col min="12" max="12" width="10.875" style="6" customWidth="1"/>
-    <col min="13" max="13" width="10.125" style="6" customWidth="1"/>
-    <col min="14" max="14" width="23.625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="21.1640625" style="5" customWidth="1"/>
+    <col min="12" max="12" width="10.83203125" style="6" customWidth="1"/>
+    <col min="13" max="13" width="10.1640625" style="6" customWidth="1"/>
+    <col min="14" max="14" width="23.6640625" style="6" customWidth="1"/>
     <col min="15" max="16" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="47.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="47" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1743,38 +1742,6 @@
       </c>
       <c r="J36" s="16">
         <v>0.11</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B37" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D37" s="14">
-        <v>100000</v>
-      </c>
-      <c r="E37" s="14">
-        <v>100000</v>
-      </c>
-      <c r="F37" s="15">
-        <v>43005</v>
-      </c>
-      <c r="G37" s="14">
-        <v>850</v>
-      </c>
-      <c r="H37" s="12">
-        <v>12</v>
-      </c>
-      <c r="I37" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="J37" s="12" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
